--- a/BV paper data.xlsx
+++ b/BV paper data.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carrGJ/Documents/ShinyByGIT/BV-Shiny/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331281C-517E-5A45-A3F0-5B07D34E9C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="28340" tabRatio="500" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-48460" yWindow="-4500" windowWidth="25600" windowHeight="20540" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVtable1.txt" sheetId="1" r:id="rId1"/>
     <sheet name="BVtable2.txt" sheetId="2" r:id="rId2"/>
     <sheet name="BVtable3.txt" sheetId="3" r:id="rId3"/>
     <sheet name="BV flat.txt" sheetId="4" r:id="rId4"/>
-    <sheet name="ECx  data.txt" sheetId="5" r:id="rId5"/>
-    <sheet name="ECx data + Bkgd.txt" sheetId="6" r:id="rId6"/>
-    <sheet name="ECx  data 4s.txt" sheetId="7" r:id="rId7"/>
-    <sheet name="ECx  data 3s.txt" sheetId="8" r:id="rId8"/>
-    <sheet name="ECx  data 2s.txt" sheetId="9" r:id="rId9"/>
-    <sheet name="ECx trouble" sheetId="10" r:id="rId10"/>
-    <sheet name="ECx error" sheetId="11" r:id="rId11"/>
-    <sheet name="ECx trouble + bkgd" sheetId="12" r:id="rId12"/>
-    <sheet name="Jess BV" sheetId="13" r:id="rId13"/>
+    <sheet name="Small N BV" sheetId="13" r:id="rId5"/>
+    <sheet name="Small N w zero BV" sheetId="14" r:id="rId6"/>
+    <sheet name="ECx  data.txt" sheetId="5" r:id="rId7"/>
+    <sheet name="ECx data + Bkgd.txt" sheetId="6" r:id="rId8"/>
+    <sheet name="ECx  data 4s.txt" sheetId="7" r:id="rId9"/>
+    <sheet name="ECx  data 3s.txt" sheetId="8" r:id="rId10"/>
+    <sheet name="ECx  data 2s.txt" sheetId="9" r:id="rId11"/>
+    <sheet name="ECx trouble" sheetId="10" r:id="rId12"/>
+    <sheet name="ECx error" sheetId="11" r:id="rId13"/>
+    <sheet name="ECx trouble + bkgd" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>y</t>
   </si>
@@ -51,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -137,6 +144,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,16 +476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -478,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -486,7 +501,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -494,7 +509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -502,7 +517,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -510,7 +525,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -518,7 +533,7 @@
         <v>118.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -526,7 +541,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -534,7 +549,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -542,7 +557,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -550,7 +565,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -558,7 +573,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -566,7 +581,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -574,7 +589,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -582,7 +597,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40</v>
       </c>
@@ -590,7 +605,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -598,7 +613,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -606,7 +621,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>80</v>
       </c>
@@ -614,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
@@ -634,16 +649,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -654,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -662,51 +677,51 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -720,16 +735,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -740,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -748,148 +763,51 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -903,102 +821,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1.8</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1.3</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1.8</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1011,15 +907,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1035,7 +1115,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1043,7 +1123,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1051,7 +1131,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1059,7 +1139,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>32</v>
       </c>
@@ -1067,7 +1147,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1075,7 +1155,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32</v>
       </c>
@@ -1083,7 +1163,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
       </c>
@@ -1091,7 +1171,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64</v>
       </c>
@@ -1099,7 +1179,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>64</v>
       </c>
@@ -1107,7 +1187,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64</v>
       </c>
@@ -1115,7 +1195,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>64</v>
       </c>
@@ -1123,7 +1203,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>128</v>
       </c>
@@ -1131,7 +1211,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>128</v>
       </c>
@@ -1139,7 +1219,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>128</v>
       </c>
@@ -1147,7 +1227,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>128</v>
       </c>
@@ -1155,7 +1235,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>256</v>
       </c>
@@ -1163,7 +1243,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>256</v>
       </c>
@@ -1171,7 +1251,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>256</v>
       </c>
@@ -1179,7 +1259,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>256</v>
       </c>
@@ -1187,7 +1267,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>512</v>
       </c>
@@ -1195,7 +1275,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>512</v>
       </c>
@@ -1203,7 +1283,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>512</v>
       </c>
@@ -1211,7 +1291,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>512</v>
       </c>
@@ -1230,14 +1310,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1253,7 +1333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1261,7 +1341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1269,7 +1349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1277,7 +1357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1285,7 +1365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1293,7 +1373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1301,7 +1381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1309,7 +1389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.32</v>
       </c>
@@ -1317,7 +1397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.32</v>
       </c>
@@ -1325,7 +1405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.32</v>
       </c>
@@ -1333,7 +1413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.32</v>
       </c>
@@ -1341,7 +1421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.32</v>
       </c>
@@ -1349,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.32</v>
       </c>
@@ -1357,7 +1437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.32</v>
       </c>
@@ -1365,7 +1445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.32</v>
       </c>
@@ -1373,7 +1453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1381,7 +1461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1389,7 +1469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1397,7 +1477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1405,7 +1485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1413,7 +1493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1421,7 +1501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1429,7 +1509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1437,7 +1517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3.2</v>
       </c>
@@ -1445,7 +1525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3.2</v>
       </c>
@@ -1453,7 +1533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3.2</v>
       </c>
@@ -1461,7 +1541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3.2</v>
       </c>
@@ -1469,7 +1549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3.2</v>
       </c>
@@ -1477,7 +1557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.2</v>
       </c>
@@ -1485,7 +1565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.2</v>
       </c>
@@ -1493,7 +1573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.2</v>
       </c>
@@ -1501,7 +1581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1509,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1517,7 +1597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1525,7 +1605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1533,7 +1613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1541,7 +1621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1549,7 +1629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1557,7 +1637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1576,16 +1656,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1601,7 +1681,7 @@
         <v>100.79666291245104</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1609,7 +1689,7 @@
         <v>96.939843088492267</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1617,7 +1697,7 @@
         <v>97.402784239229888</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1625,7 +1705,7 @@
         <v>97.198809531614657</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1633,7 +1713,7 @@
         <v>94.395222128244697</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1641,7 +1721,7 @@
         <v>95.527649739133309</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1649,7 +1729,7 @@
         <v>105.90034501498116</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1657,7 +1737,7 @@
         <v>101.73948657798736</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1665,7 +1745,7 @@
         <v>105.99195031518435</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -1673,7 +1753,7 @@
         <v>96.373379964515806</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1681,7 +1761,7 @@
         <v>93.908099219386415</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -1689,7 +1769,7 @@
         <v>105.82748249321986</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -1697,7 +1777,7 @@
         <v>95.055694231496759</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1705,7 +1785,7 @@
         <v>95.508228830011873</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -1713,7 +1793,7 @@
         <v>99.804342979674033</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -1721,7 +1801,7 @@
         <v>90.817679707408828</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>80</v>
       </c>
@@ -1729,7 +1809,7 @@
         <v>112.61225476235626</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
@@ -1749,77 +1829,101 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.8</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.8</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1833,111 +1937,117 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79146671-94AE-B84B-8F71-824C6B71BDE0}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.8</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1948,59 +2058,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2014,16 +2124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2034,59 +2142,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2100,16 +2219,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2128,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2139,45 +2258,44 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/BV paper data.xlsx
+++ b/BV paper data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carrGJ/Documents/ShinyByGIT/BV-Shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331281C-517E-5A45-A3F0-5B07D34E9C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00CDED-72D0-3B4C-BF10-A71DEB4C5F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48460" yWindow="-4500" windowWidth="25600" windowHeight="20540" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48460" yWindow="-4500" windowWidth="25600" windowHeight="20540" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVtable1.txt" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="BV flat.txt" sheetId="4" r:id="rId4"/>
     <sheet name="Small N BV" sheetId="13" r:id="rId5"/>
     <sheet name="Small N w zero BV" sheetId="14" r:id="rId6"/>
-    <sheet name="ECx  data.txt" sheetId="5" r:id="rId7"/>
-    <sheet name="ECx data + Bkgd.txt" sheetId="6" r:id="rId8"/>
-    <sheet name="ECx  data 4s.txt" sheetId="7" r:id="rId9"/>
-    <sheet name="ECx  data 3s.txt" sheetId="8" r:id="rId10"/>
-    <sheet name="ECx  data 2s.txt" sheetId="9" r:id="rId11"/>
-    <sheet name="ECx trouble" sheetId="10" r:id="rId12"/>
-    <sheet name="ECx error" sheetId="11" r:id="rId13"/>
-    <sheet name="ECx trouble + bkgd" sheetId="12" r:id="rId14"/>
+    <sheet name="Small N+zero+names" sheetId="15" r:id="rId7"/>
+    <sheet name="ECx  data.txt" sheetId="5" r:id="rId8"/>
+    <sheet name="ECx data + Bkgd.txt" sheetId="6" r:id="rId9"/>
+    <sheet name="ECx  data 4s.txt" sheetId="7" r:id="rId10"/>
+    <sheet name="ECx  data 3s.txt" sheetId="8" r:id="rId11"/>
+    <sheet name="ECx  data 2s.txt" sheetId="9" r:id="rId12"/>
+    <sheet name="ECx trouble" sheetId="10" r:id="rId13"/>
+    <sheet name="ECx error" sheetId="11" r:id="rId14"/>
+    <sheet name="ECx trouble + bkgd" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
   <si>
     <t>y</t>
   </si>
@@ -53,6 +54,12 @@
   </si>
   <si>
     <t>sizes</t>
+  </si>
+  <si>
+    <t>yVar</t>
+  </si>
+  <si>
+    <t>doseVar</t>
   </si>
 </sst>
 </file>
@@ -649,6 +656,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -734,7 +827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -821,7 +914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -907,7 +1000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -993,7 +1086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1940,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79146671-94AE-B84B-8F71-824C6B71BDE0}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2040,6 +2133,109 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03855E41-41A6-6A47-8819-C4F72702589B}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.8</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2110,101 +2306,6 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
         <v>20</v>
       </c>
     </row>
@@ -2219,12 +2320,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2241,57 +2340,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BV paper data.xlsx
+++ b/BV paper data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carrGJ/Documents/ShinyByGIT/BV-Shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00CDED-72D0-3B4C-BF10-A71DEB4C5F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E49AC5-D0EE-F248-B3A6-8118954680F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48460" yWindow="-4500" windowWidth="25600" windowHeight="20540" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48460" yWindow="-4500" windowWidth="25600" windowHeight="20540" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVtable1.txt" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="BV flat.txt" sheetId="4" r:id="rId4"/>
     <sheet name="Small N BV" sheetId="13" r:id="rId5"/>
     <sheet name="Small N w zero BV" sheetId="14" r:id="rId6"/>
-    <sheet name="Small N+zero+names" sheetId="15" r:id="rId7"/>
-    <sheet name="ECx  data.txt" sheetId="5" r:id="rId8"/>
-    <sheet name="ECx data + Bkgd.txt" sheetId="6" r:id="rId9"/>
-    <sheet name="ECx  data 4s.txt" sheetId="7" r:id="rId10"/>
-    <sheet name="ECx  data 3s.txt" sheetId="8" r:id="rId11"/>
-    <sheet name="ECx  data 2s.txt" sheetId="9" r:id="rId12"/>
-    <sheet name="ECx trouble" sheetId="10" r:id="rId13"/>
-    <sheet name="ECx error" sheetId="11" r:id="rId14"/>
-    <sheet name="ECx trouble + bkgd" sheetId="12" r:id="rId15"/>
+    <sheet name="No data" sheetId="16" r:id="rId7"/>
+    <sheet name="Small N+zero+names" sheetId="15" r:id="rId8"/>
+    <sheet name="ECx  data.txt" sheetId="5" r:id="rId9"/>
+    <sheet name="ECx data + Bkgd.txt" sheetId="6" r:id="rId10"/>
+    <sheet name="ECx  data 4s.txt" sheetId="7" r:id="rId11"/>
+    <sheet name="ECx  data 3s.txt" sheetId="8" r:id="rId12"/>
+    <sheet name="ECx  data 2s.txt" sheetId="9" r:id="rId13"/>
+    <sheet name="ECx trouble" sheetId="10" r:id="rId14"/>
+    <sheet name="ECx error" sheetId="11" r:id="rId15"/>
+    <sheet name="ECx trouble + bkgd" sheetId="12" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>y</t>
   </si>
@@ -60,6 +61,27 @@
   </si>
   <si>
     <t>doseVar</t>
+  </si>
+  <si>
+    <t>There</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>hmm</t>
   </si>
 </sst>
 </file>
@@ -656,6 +678,101 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -741,7 +858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -827,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -914,7 +1031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1000,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1086,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2133,10 +2250,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01952393-81DB-A842-8DBD-E5D5FDD7D606}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03855E41-41A6-6A47-8819-C4F72702589B}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2235,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2317,99 +2480,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>